--- a/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86BB458-E8C9-4381-A956-34909C588F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16031954-5CCB-4986-BA3A-5C0E9634DF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87AC352C-B169-4A85-9810-A80653B99603}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F79FC5A-9C25-46F7-ABF9-35F44CCA0969}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="417">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1194 +77,1179 @@
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>78,32%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
     <t>15,18%</t>
   </si>
   <si>
@@ -1275,9 +1260,6 @@
   </si>
   <si>
     <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
   </si>
   <si>
     <t>14,52%</t>
@@ -1719,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E3844C-8945-41DD-A3C5-8CFF639077DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A9EA4A-9A26-47EE-A3E6-9E532D63200A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,7 +1939,7 @@
         <v>449</v>
       </c>
       <c r="I6" s="7">
-        <v>452826</v>
+        <v>452825</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2008,7 +1990,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2479,10 +2461,10 @@
         <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -2491,13 +2473,13 @@
         <v>75541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2494,13 @@
         <v>40166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -2527,13 +2509,13 @@
         <v>94748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2542,13 +2524,13 @@
         <v>134913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2545,13 @@
         <v>442016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>522</v>
@@ -2578,13 +2560,13 @@
         <v>526838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>981</v>
@@ -2593,13 +2575,13 @@
         <v>968854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2637,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3412E29A-702C-452D-9F26-464F7E72770B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E489CD-1540-4603-A45B-D8D8D280ECD3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2798,13 +2780,13 @@
         <v>46532</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -2813,13 +2795,13 @@
         <v>103127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -2828,13 +2810,13 @@
         <v>149659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2831,13 @@
         <v>47149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2864,13 +2846,13 @@
         <v>92801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>126</v>
@@ -2879,13 +2861,13 @@
         <v>139950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2882,13 @@
         <v>320717</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H6" s="7">
         <v>417</v>
@@ -2915,13 +2897,13 @@
         <v>438617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M6" s="7">
         <v>713</v>
@@ -2930,13 +2912,13 @@
         <v>759333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2986,13 @@
         <v>3077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3019,13 +3001,13 @@
         <v>4450</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3034,13 +3016,13 @@
         <v>7528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3037,13 @@
         <v>12359</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3070,13 +3052,13 @@
         <v>8107</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3085,13 +3067,13 @@
         <v>20466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3088,13 @@
         <v>103229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3121,13 +3103,13 @@
         <v>70516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3136,13 +3118,13 @@
         <v>173745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3192,13 @@
         <v>1043</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3225,13 +3207,13 @@
         <v>2262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3240,13 +3222,13 @@
         <v>3305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3243,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3276,13 +3258,13 @@
         <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3291,13 +3273,13 @@
         <v>2038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3294,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3327,13 +3309,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3342,13 +3324,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3398,13 @@
         <v>50652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3431,13 +3413,13 @@
         <v>109839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -3446,13 +3428,13 @@
         <v>160491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3449,13 @@
         <v>60493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -3482,13 +3464,13 @@
         <v>101961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -3497,13 +3479,13 @@
         <v>162454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3500,13 @@
         <v>448492</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>498</v>
@@ -3533,13 +3515,13 @@
         <v>528065</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" s="7">
         <v>904</v>
@@ -3548,13 +3530,13 @@
         <v>976557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3592,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC0984E-534E-44C7-9281-70935DB23A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7719ABD6-1B50-4437-BDE9-F3EE2E38BBAA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3646,7 +3628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,13 +3735,13 @@
         <v>31764</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3768,13 +3750,13 @@
         <v>61981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3783,13 +3765,13 @@
         <v>93745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3786,13 @@
         <v>29885</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3819,13 +3801,13 @@
         <v>93169</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -3834,13 +3816,13 @@
         <v>123055</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,16 +3834,16 @@
         <v>318</v>
       </c>
       <c r="D6" s="7">
-        <v>292252</v>
+        <v>292251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>347</v>
@@ -3870,13 +3852,13 @@
         <v>399607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>665</v>
@@ -3885,13 +3867,13 @@
         <v>691858</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3885,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3959,13 +3941,13 @@
         <v>5021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3974,13 +3956,13 @@
         <v>8775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -3989,13 +3971,13 @@
         <v>13796</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +3992,13 @@
         <v>10181</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4025,13 +4007,13 @@
         <v>26481</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -4040,13 +4022,13 @@
         <v>36662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4043,13 @@
         <v>177331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4076,13 +4058,13 @@
         <v>152818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -4091,13 +4073,13 @@
         <v>330149</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4147,13 @@
         <v>2308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4183,10 +4165,10 @@
         <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4195,13 +4177,13 @@
         <v>2308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4198,13 @@
         <v>1760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4231,13 +4213,13 @@
         <v>4884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4246,13 +4228,13 @@
         <v>6644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4249,13 @@
         <v>37961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4282,13 +4264,13 @@
         <v>28790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -4297,13 +4279,13 @@
         <v>66751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4353,13 @@
         <v>39093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4386,13 +4368,13 @@
         <v>70756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4401,13 +4383,13 @@
         <v>109849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4404,13 @@
         <v>41826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4437,13 +4419,13 @@
         <v>124534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -4452,13 +4434,13 @@
         <v>166360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4455,13 @@
         <v>507544</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>499</v>
@@ -4488,13 +4470,13 @@
         <v>581215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>1034</v>
@@ -4503,13 +4485,13 @@
         <v>1088759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,7 +4547,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4584,7 +4566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B293404D-F495-4ED4-B9D4-777B6EDA20E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D94811A-02CD-4A9A-9064-F60DE2D30FDE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4601,7 +4583,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4708,13 +4690,13 @@
         <v>36791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>226</v>
@@ -4723,13 +4705,13 @@
         <v>126801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>286</v>
@@ -4738,13 +4720,13 @@
         <v>163592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4741,13 @@
         <v>40226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -4774,13 +4756,13 @@
         <v>116017</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -4789,13 +4771,13 @@
         <v>156243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4792,13 @@
         <v>208805</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>579</v>
@@ -4825,13 +4807,13 @@
         <v>312703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>886</v>
@@ -4840,13 +4822,13 @@
         <v>521507</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4896,13 @@
         <v>9963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4944,13 +4926,13 @@
         <v>25572</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4947,13 @@
         <v>20424</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -4980,13 +4962,13 @@
         <v>32298</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4995,13 +4977,13 @@
         <v>52723</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4998,13 @@
         <v>264178</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>436</v>
@@ -5031,13 +5013,13 @@
         <v>338515</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>816</v>
@@ -5046,13 +5028,13 @@
         <v>602693</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5102,13 @@
         <v>1789</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5135,13 +5117,13 @@
         <v>1658</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5150,13 +5132,13 @@
         <v>3447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5153,13 @@
         <v>6213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5186,13 +5168,13 @@
         <v>6584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5201,13 +5183,13 @@
         <v>12797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5204,13 @@
         <v>102776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5237,13 +5219,13 @@
         <v>70003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>291</v>
@@ -5252,13 +5234,13 @@
         <v>172780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5308,13 @@
         <v>48544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
@@ -5341,13 +5323,13 @@
         <v>144067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>336</v>
@@ -5356,13 +5338,13 @@
         <v>192611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5359,13 @@
         <v>66863</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -5392,13 +5374,13 @@
         <v>154899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -5407,13 +5389,13 @@
         <v>221762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5410,13 @@
         <v>575760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H18" s="7">
         <v>1152</v>
@@ -5443,13 +5425,13 @@
         <v>721221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M18" s="7">
         <v>1993</v>
@@ -5458,13 +5440,13 @@
         <v>1296980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,7 +5502,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16031954-5CCB-4986-BA3A-5C0E9634DF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B668E782-C399-4AB0-9EE2-FF137C8DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F79FC5A-9C25-46F7-ABF9-35F44CCA0969}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E11FB5F-47F2-476F-9AA7-14097377F146}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="419">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1219 +77,1225 @@
     <t>4,92%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>10,56%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A9EA4A-9A26-47EE-A3E6-9E532D63200A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BE37F3-A464-4111-9FAD-94541477BC17}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1894,10 +1900,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -1906,19 +1912,19 @@
         <v>115200</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>345</v>
@@ -1927,28 +1933,28 @@
         <v>322509</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>449</v>
       </c>
       <c r="I6" s="7">
-        <v>452825</v>
+        <v>452826</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -1957,13 +1963,13 @@
         <v>775334</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,28 +1984,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -2008,18 +2014,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2031,13 +2037,13 @@
         <v>966</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2046,13 +2052,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2061,13 +2067,13 @@
         <v>3021</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2088,13 @@
         <v>5235</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2097,13 +2103,13 @@
         <v>6645</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2112,19 +2118,19 @@
         <v>11880</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>82</v>
@@ -2133,13 +2139,13 @@
         <v>81882</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -2148,13 +2154,13 @@
         <v>53512</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -2163,13 +2169,13 @@
         <v>135394</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2190,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2199,13 +2205,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2214,18 +2220,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2237,13 +2243,13 @@
         <v>955</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2252,13 +2258,13 @@
         <v>1161</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2267,13 +2273,13 @@
         <v>2116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2294,13 @@
         <v>2614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2303,13 +2309,13 @@
         <v>5219</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2318,19 +2324,19 @@
         <v>7833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>32</v>
@@ -2339,13 +2345,13 @@
         <v>37625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2354,13 +2360,13 @@
         <v>20501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2369,13 +2375,13 @@
         <v>58126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2396,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2405,13 +2411,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2420,13 +2426,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2449,13 @@
         <v>20285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -2458,13 +2464,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -2473,13 +2479,13 @@
         <v>75541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2500,13 @@
         <v>40166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -2509,13 +2515,13 @@
         <v>94748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2524,19 +2530,19 @@
         <v>134913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>459</v>
@@ -2545,13 +2551,13 @@
         <v>442016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>522</v>
@@ -2560,13 +2566,13 @@
         <v>526838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>981</v>
@@ -2575,13 +2581,13 @@
         <v>968854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2602,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2611,13 +2617,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2626,18 +2632,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E489CD-1540-4603-A45B-D8D8D280ECD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF014E97-218D-4679-BC25-B2EE1D9228F3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2673,7 +2679,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2780,13 +2786,13 @@
         <v>46532</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -2795,13 +2801,13 @@
         <v>103127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -2810,13 +2816,13 @@
         <v>149659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2837,13 @@
         <v>47149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2846,13 +2852,13 @@
         <v>92801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>126</v>
@@ -2861,19 +2867,19 @@
         <v>139950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>296</v>
@@ -2882,13 +2888,13 @@
         <v>320717</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7">
         <v>417</v>
@@ -2897,13 +2903,13 @@
         <v>438617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
         <v>713</v>
@@ -2912,13 +2918,13 @@
         <v>759333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2939,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2948,13 +2954,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2963,18 +2969,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2986,13 +2992,13 @@
         <v>3077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3001,13 +3007,13 @@
         <v>4450</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3016,13 +3022,13 @@
         <v>7528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3043,13 @@
         <v>12359</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3052,13 +3058,13 @@
         <v>8107</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3067,19 +3073,19 @@
         <v>20466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>91</v>
@@ -3088,13 +3094,13 @@
         <v>103229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3103,13 +3109,13 @@
         <v>70516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3118,13 +3124,13 @@
         <v>173745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3145,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3154,13 +3160,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3169,18 +3175,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3192,13 +3198,13 @@
         <v>1043</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3207,13 +3213,13 @@
         <v>2262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3222,13 +3228,13 @@
         <v>3305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3249,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3258,13 +3264,13 @@
         <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3273,19 +3279,19 @@
         <v>2038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -3294,13 +3300,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3309,13 +3315,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3324,13 +3330,13 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3351,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3360,13 +3366,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3375,13 +3381,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3404,13 @@
         <v>50652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3413,13 +3419,13 @@
         <v>109839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -3428,13 +3434,13 @@
         <v>160491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3455,13 @@
         <v>60493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -3464,13 +3470,13 @@
         <v>101961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -3479,19 +3485,19 @@
         <v>162454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>406</v>
@@ -3500,13 +3506,13 @@
         <v>448492</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>498</v>
@@ -3515,13 +3521,13 @@
         <v>528065</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M18" s="7">
         <v>904</v>
@@ -3530,13 +3536,13 @@
         <v>976557</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3557,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3566,13 +3572,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3581,18 +3587,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +3617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7719ABD6-1B50-4437-BDE9-F3EE2E38BBAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E23F9DE-8C25-4E90-B6F4-D42984725DF4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3628,7 +3634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3735,13 +3741,13 @@
         <v>31764</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3750,13 +3756,13 @@
         <v>61981</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3765,13 +3771,13 @@
         <v>93745</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3792,13 @@
         <v>29885</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3801,13 +3807,13 @@
         <v>93169</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -3816,34 +3822,34 @@
         <v>123055</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>318</v>
       </c>
       <c r="D6" s="7">
-        <v>292251</v>
+        <v>292252</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>347</v>
@@ -3852,13 +3858,13 @@
         <v>399607</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>665</v>
@@ -3867,13 +3873,13 @@
         <v>691858</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,16 +3891,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3903,13 +3909,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3918,18 +3924,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3941,13 +3947,13 @@
         <v>5021</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3956,13 +3962,13 @@
         <v>8775</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -3971,13 +3977,13 @@
         <v>13796</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3998,13 @@
         <v>10181</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4007,13 +4013,13 @@
         <v>26481</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -4022,19 +4028,19 @@
         <v>36662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>180</v>
@@ -4043,13 +4049,13 @@
         <v>177331</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -4058,13 +4064,13 @@
         <v>152818</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -4073,13 +4079,13 @@
         <v>330149</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4100,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -4109,13 +4115,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -4124,18 +4130,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4147,13 +4153,13 @@
         <v>2308</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4162,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4177,13 +4183,13 @@
         <v>2308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4204,13 @@
         <v>1760</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4213,13 +4219,13 @@
         <v>4884</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4228,10 +4234,10 @@
         <v>6644</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>285</v>
@@ -4240,7 +4246,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>37</v>
@@ -4300,13 +4306,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4315,13 +4321,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4330,13 +4336,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,7 +4362,7 @@
         <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>296</v>
@@ -4407,10 +4413,10 @@
         <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4419,13 +4425,13 @@
         <v>124534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -4434,19 +4440,19 @@
         <v>166360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>535</v>
@@ -4455,13 +4461,13 @@
         <v>507544</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>499</v>
@@ -4470,13 +4476,13 @@
         <v>581215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M18" s="7">
         <v>1034</v>
@@ -4485,13 +4491,13 @@
         <v>1088759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4512,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4521,13 +4527,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4536,18 +4542,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4566,7 +4572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D94811A-02CD-4A9A-9064-F60DE2D30FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41F3899-43C9-4144-A468-A0650FB68C16}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4583,7 +4589,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4690,13 +4696,13 @@
         <v>36791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>226</v>
@@ -4705,13 +4711,13 @@
         <v>126801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>286</v>
@@ -4720,13 +4726,13 @@
         <v>163592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4747,13 @@
         <v>40226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -4756,13 +4762,13 @@
         <v>116017</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -4771,19 +4777,19 @@
         <v>156243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>307</v>
@@ -4792,13 +4798,13 @@
         <v>208805</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>579</v>
@@ -4807,13 +4813,13 @@
         <v>312703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>886</v>
@@ -4822,13 +4828,13 @@
         <v>521507</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4849,13 @@
         <v>285823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1019</v>
@@ -4858,13 +4864,13 @@
         <v>555520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1445</v>
@@ -4873,18 +4879,18 @@
         <v>841342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4896,13 +4902,13 @@
         <v>9963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4911,13 +4917,13 @@
         <v>15609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -4926,13 +4932,13 @@
         <v>25572</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4953,13 @@
         <v>20424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -4962,13 +4968,13 @@
         <v>32298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4977,19 +4983,19 @@
         <v>52723</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>380</v>
@@ -4998,13 +5004,13 @@
         <v>264178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>436</v>
@@ -5013,13 +5019,13 @@
         <v>338515</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>816</v>
@@ -5028,13 +5034,13 @@
         <v>602693</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5055,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -5064,13 +5070,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -5079,18 +5085,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5102,13 +5108,13 @@
         <v>1789</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5117,13 +5123,13 @@
         <v>1658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>372</v>
+        <v>175</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>374</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5132,13 +5138,13 @@
         <v>3447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5159,13 @@
         <v>6213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5168,13 +5174,13 @@
         <v>6584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5183,19 +5189,19 @@
         <v>12797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>154</v>
@@ -5204,13 +5210,13 @@
         <v>102776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5219,13 +5225,13 @@
         <v>70003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>291</v>
@@ -5234,13 +5240,13 @@
         <v>172780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5261,13 @@
         <v>110778</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5270,13 +5276,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>318</v>
@@ -5285,13 +5291,13 @@
         <v>189024</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5314,13 @@
         <v>48544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
@@ -5323,13 +5329,13 @@
         <v>144067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>336</v>
@@ -5338,13 +5344,13 @@
         <v>192611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>137</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5365,13 @@
         <v>66863</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -5374,13 +5380,13 @@
         <v>154899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -5389,19 +5395,19 @@
         <v>221762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>841</v>
@@ -5410,13 +5416,13 @@
         <v>575760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H18" s="7">
         <v>1152</v>
@@ -5425,13 +5431,13 @@
         <v>721221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M18" s="7">
         <v>1993</v>
@@ -5440,13 +5446,13 @@
         <v>1296980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5467,13 @@
         <v>691167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1700</v>
@@ -5476,13 +5482,13 @@
         <v>1020187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>2718</v>
@@ -5491,18 +5497,18 @@
         <v>1711354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B668E782-C399-4AB0-9EE2-FF137C8DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A17CAE-749E-4C0F-8AE6-DB1A9DC4A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E11FB5F-47F2-476F-9AA7-14097377F146}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C772894E-0386-496B-8747-86259B84F089}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="423">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,1195 +107,1207 @@
     <t>8,66%</t>
   </si>
   <si>
-    <t>5,99%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>57,21%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BE37F3-A464-4111-9FAD-94541477BC17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BDD77A-36DC-4AC2-A491-76651F53D972}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1900,10 +1912,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -1912,19 +1924,19 @@
         <v>115200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>345</v>
@@ -1933,13 +1945,13 @@
         <v>322509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>449</v>
@@ -1948,13 +1960,13 @@
         <v>452826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>794</v>
@@ -1963,13 +1975,13 @@
         <v>775334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +1996,13 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
@@ -1999,13 +2011,13 @@
         <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -2014,18 +2026,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2037,13 +2049,13 @@
         <v>966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2052,13 +2064,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2067,13 +2079,13 @@
         <v>3021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2100,13 @@
         <v>5235</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2103,13 +2115,13 @@
         <v>6645</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -2118,19 +2130,19 @@
         <v>11880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>82</v>
@@ -2139,13 +2151,13 @@
         <v>81882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -2154,13 +2166,13 @@
         <v>53512</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>134</v>
@@ -2169,13 +2181,13 @@
         <v>135394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2202,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2205,13 +2217,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2220,18 +2232,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2243,13 +2255,13 @@
         <v>955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2258,13 +2270,13 @@
         <v>1161</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2273,13 +2285,13 @@
         <v>2116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2306,13 @@
         <v>2614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2309,13 +2321,13 @@
         <v>5219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2324,19 +2336,19 @@
         <v>7833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>32</v>
@@ -2345,13 +2357,13 @@
         <v>37625</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -2360,13 +2372,13 @@
         <v>20501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2375,13 +2387,13 @@
         <v>58126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2408,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2411,13 +2423,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2426,13 +2438,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2461,13 @@
         <v>20285</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -2464,13 +2476,13 @@
         <v>55257</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -2479,13 +2491,13 @@
         <v>75541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2512,13 @@
         <v>40166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -2515,13 +2527,13 @@
         <v>94748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2530,19 +2542,19 @@
         <v>134913</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>459</v>
@@ -2551,13 +2563,13 @@
         <v>442016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>522</v>
@@ -2566,13 +2578,13 @@
         <v>526838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>981</v>
@@ -2581,13 +2593,13 @@
         <v>968854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2614,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2617,13 +2629,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2632,18 +2644,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF014E97-218D-4679-BC25-B2EE1D9228F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A24AA04-8D01-4812-976F-F0C958FCF285}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2679,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2786,13 +2798,13 @@
         <v>46532</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -2801,13 +2813,13 @@
         <v>103127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -2816,13 +2828,13 @@
         <v>149659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2849,13 @@
         <v>47149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2852,13 +2864,13 @@
         <v>92801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>126</v>
@@ -2867,19 +2879,19 @@
         <v>139950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>296</v>
@@ -2888,13 +2900,13 @@
         <v>320717</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>417</v>
@@ -2903,13 +2915,13 @@
         <v>438617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>713</v>
@@ -2918,13 +2930,13 @@
         <v>759333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2951,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2954,13 +2966,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2969,18 +2981,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2992,13 +3004,13 @@
         <v>3077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3007,13 +3019,13 @@
         <v>4450</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3022,13 +3034,13 @@
         <v>7528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3055,13 @@
         <v>12359</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3058,13 +3070,13 @@
         <v>8107</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3073,19 +3085,19 @@
         <v>20466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>91</v>
@@ -3094,13 +3106,13 @@
         <v>103229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3109,13 +3121,13 @@
         <v>70516</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3124,13 +3136,13 @@
         <v>173745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3157,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -3160,13 +3172,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3175,18 +3187,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3198,13 +3210,13 @@
         <v>1043</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3213,13 +3225,13 @@
         <v>2262</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3228,13 +3240,13 @@
         <v>3305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3261,13 @@
         <v>986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3264,13 +3276,13 @@
         <v>1053</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3279,19 +3291,19 @@
         <v>2038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -3300,13 +3312,13 @@
         <v>24547</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -3315,13 +3327,13 @@
         <v>18931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3330,10 +3342,10 @@
         <v>43478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>191</v>
@@ -3351,13 +3363,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3366,13 +3378,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3381,13 +3393,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,10 +3419,10 @@
         <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3419,13 +3431,13 @@
         <v>109839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -3434,13 +3446,13 @@
         <v>160491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3467,13 @@
         <v>60493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -3470,13 +3482,13 @@
         <v>101961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -3485,19 +3497,19 @@
         <v>162454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>406</v>
@@ -3506,13 +3518,13 @@
         <v>448492</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>498</v>
@@ -3521,13 +3533,13 @@
         <v>528065</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>904</v>
@@ -3536,13 +3548,13 @@
         <v>976557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3569,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3572,13 +3584,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3587,18 +3599,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E23F9DE-8C25-4E90-B6F4-D42984725DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8646CA20-CB87-45CB-9191-17B2EBD82C07}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3634,7 +3646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3741,13 +3753,13 @@
         <v>31764</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3756,13 +3768,13 @@
         <v>61981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -3771,13 +3783,13 @@
         <v>93745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3804,13 @@
         <v>29885</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3807,13 +3819,13 @@
         <v>93169</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>107</v>
@@ -3822,19 +3834,19 @@
         <v>123055</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>318</v>
@@ -3843,13 +3855,13 @@
         <v>292252</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>347</v>
@@ -3858,13 +3870,13 @@
         <v>399607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M6" s="7">
         <v>665</v>
@@ -3873,10 +3885,10 @@
         <v>691858</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>245</v>
@@ -3894,13 +3906,13 @@
         <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3909,13 +3921,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3924,18 +3936,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3998,13 +4010,13 @@
         <v>10181</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -4013,13 +4025,13 @@
         <v>26481</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -4028,10 +4040,10 @@
         <v>36662</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>262</v>
@@ -4040,7 +4052,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>180</v>
@@ -4100,13 +4112,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -4115,13 +4127,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -4130,18 +4142,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4156,10 +4168,10 @@
         <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4168,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4183,13 +4195,13 @@
         <v>2308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4216,13 @@
         <v>1760</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4219,13 +4231,13 @@
         <v>4884</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4234,19 +4246,19 @@
         <v>6644</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>37</v>
@@ -4255,13 +4267,13 @@
         <v>37961</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4270,13 +4282,13 @@
         <v>28790</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -4285,13 +4297,13 @@
         <v>66751</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4318,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4321,13 +4333,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4336,13 +4348,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4371,13 @@
         <v>39093</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4374,13 +4386,13 @@
         <v>70756</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -4389,13 +4401,13 @@
         <v>109849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4422,13 @@
         <v>41826</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4425,13 +4437,13 @@
         <v>124534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>145</v>
@@ -4440,19 +4452,19 @@
         <v>166360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>535</v>
@@ -4461,13 +4473,13 @@
         <v>507544</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>499</v>
@@ -4476,13 +4488,13 @@
         <v>581215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>1034</v>
@@ -4491,13 +4503,13 @@
         <v>1088759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4524,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4527,13 +4539,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4542,18 +4554,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +4584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41F3899-43C9-4144-A468-A0650FB68C16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F524C-7B5E-43EB-A9C6-6FCD5D8B77CC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4589,7 +4601,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4696,13 +4708,13 @@
         <v>36791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>226</v>
@@ -4711,13 +4723,13 @@
         <v>126801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>286</v>
@@ -4726,13 +4738,13 @@
         <v>163592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4759,13 @@
         <v>40226</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -4762,13 +4774,13 @@
         <v>116017</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -4777,19 +4789,19 @@
         <v>156243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>307</v>
@@ -4798,13 +4810,13 @@
         <v>208805</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>579</v>
@@ -4813,13 +4825,13 @@
         <v>312703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>886</v>
@@ -4828,13 +4840,13 @@
         <v>521507</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4861,13 @@
         <v>285823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1019</v>
@@ -4864,13 +4876,13 @@
         <v>555520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1445</v>
@@ -4879,18 +4891,18 @@
         <v>841342</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4902,13 +4914,13 @@
         <v>9963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -4917,13 +4929,13 @@
         <v>15609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -4932,13 +4944,13 @@
         <v>25572</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4965,13 @@
         <v>20424</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -4968,13 +4980,13 @@
         <v>32298</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4983,19 +4995,19 @@
         <v>52723</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>380</v>
@@ -5004,13 +5016,13 @@
         <v>264178</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>436</v>
@@ -5019,13 +5031,13 @@
         <v>338515</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>816</v>
@@ -5034,13 +5046,13 @@
         <v>602693</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5067,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -5070,13 +5082,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -5085,18 +5097,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5108,13 +5120,13 @@
         <v>1789</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5123,13 +5135,13 @@
         <v>1658</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>374</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>375</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5138,13 +5150,13 @@
         <v>3447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5171,13 @@
         <v>6213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -5174,13 +5186,13 @@
         <v>6584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -5189,19 +5201,19 @@
         <v>12797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>154</v>
@@ -5210,13 +5222,13 @@
         <v>102776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -5225,13 +5237,13 @@
         <v>70003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>291</v>
@@ -5240,13 +5252,13 @@
         <v>172780</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5273,13 @@
         <v>110778</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5276,13 +5288,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>318</v>
@@ -5291,13 +5303,13 @@
         <v>189024</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5326,13 @@
         <v>48544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
@@ -5329,13 +5341,13 @@
         <v>144067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>336</v>
@@ -5344,13 +5356,13 @@
         <v>192611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5377,13 @@
         <v>66863</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -5380,13 +5392,13 @@
         <v>154899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -5395,19 +5407,19 @@
         <v>221762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>841</v>
@@ -5416,13 +5428,13 @@
         <v>575760</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H18" s="7">
         <v>1152</v>
@@ -5431,13 +5443,13 @@
         <v>721221</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M18" s="7">
         <v>1993</v>
@@ -5446,13 +5458,13 @@
         <v>1296980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5479,13 @@
         <v>691167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1700</v>
@@ -5482,13 +5494,13 @@
         <v>1020187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>2718</v>
@@ -5497,18 +5509,18 @@
         <v>1711354</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5403-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A17CAE-749E-4C0F-8AE6-DB1A9DC4A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A45BC48D-389E-4A00-B2F8-01C24131A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C772894E-0386-496B-8747-86259B84F089}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B50BFAE-98CD-4CC9-8022-3E49222EADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="415">
   <si>
     <t>Población según si es capaz de ir de compras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -995,319 +995,295 @@
     <t>Población según si es capaz de ir de compras en 2023 (Tasa respuesta: 31,22%)</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BDD77A-36DC-4AC2-A491-76651F53D972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F20B395-BE6B-4AFD-BDAC-EE75330C5707}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,7 +1933,7 @@
         <v>449</v>
       </c>
       <c r="I6" s="7">
-        <v>452826</v>
+        <v>452825</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2008,7 +1984,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2674,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A24AA04-8D01-4812-976F-F0C958FCF285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D257A71-505C-4906-9AB7-EFDB77F31C92}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8646CA20-CB87-45CB-9191-17B2EBD82C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B69E40-1CB2-4D71-B12E-862E4CC09A78}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,7 +3828,7 @@
         <v>318</v>
       </c>
       <c r="D6" s="7">
-        <v>292252</v>
+        <v>292251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>238</v>
@@ -3903,7 +3879,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4584,7 +4560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F524C-7B5E-43EB-A9C6-6FCD5D8B77CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F147F3EC-60D1-4925-A849-D2D23BAE189A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4705,7 +4681,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>36791</v>
+        <v>34951</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>318</v>
@@ -4720,7 +4696,7 @@
         <v>226</v>
       </c>
       <c r="I4" s="7">
-        <v>126801</v>
+        <v>112916</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>321</v>
@@ -4735,7 +4711,7 @@
         <v>286</v>
       </c>
       <c r="N4" s="7">
-        <v>163592</v>
+        <v>147867</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>324</v>
@@ -4756,7 +4732,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>40226</v>
+        <v>37467</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>327</v>
@@ -4765,37 +4741,37 @@
         <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
       </c>
       <c r="I5" s="7">
-        <v>116017</v>
+        <v>103830</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
       </c>
       <c r="N5" s="7">
-        <v>156243</v>
+        <v>141296</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,46 +4783,46 @@
         <v>307</v>
       </c>
       <c r="D6" s="7">
-        <v>208805</v>
+        <v>195363</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>579</v>
       </c>
       <c r="I6" s="7">
-        <v>312703</v>
+        <v>283987</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>886</v>
       </c>
       <c r="N6" s="7">
-        <v>521507</v>
+        <v>479349</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4834,7 @@
         <v>426</v>
       </c>
       <c r="D7" s="7">
-        <v>285823</v>
+        <v>267781</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4873,7 +4849,7 @@
         <v>1019</v>
       </c>
       <c r="I7" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4888,7 +4864,7 @@
         <v>1445</v>
       </c>
       <c r="N7" s="7">
-        <v>841342</v>
+        <v>768513</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4911,46 +4887,46 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>9963</v>
+        <v>9334</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>15609</v>
+        <v>14087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
       </c>
       <c r="N8" s="7">
-        <v>25572</v>
+        <v>23420</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,46 +4938,46 @@
         <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>20424</v>
+        <v>19177</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
       </c>
       <c r="I9" s="7">
-        <v>32298</v>
+        <v>29252</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
       </c>
       <c r="N9" s="7">
-        <v>52723</v>
+        <v>48428</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,46 +4989,46 @@
         <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>264178</v>
+        <v>244747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>436</v>
       </c>
       <c r="I10" s="7">
-        <v>338515</v>
+        <v>412401</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>816</v>
       </c>
       <c r="N10" s="7">
-        <v>602693</v>
+        <v>657147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,7 +5040,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5079,7 +5055,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5094,7 +5070,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5117,46 +5093,46 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1789</v>
+        <v>1624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1658</v>
+        <v>1599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>3447</v>
+        <v>3223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,46 +5144,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>6213</v>
+        <v>5698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>6584</v>
+        <v>5871</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>12797</v>
+        <v>11569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,46 +5195,46 @@
         <v>154</v>
       </c>
       <c r="D14" s="7">
-        <v>102776</v>
+        <v>96509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
       </c>
       <c r="I14" s="7">
-        <v>70003</v>
+        <v>63855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>291</v>
       </c>
       <c r="N14" s="7">
-        <v>172780</v>
+        <v>160363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,7 +5246,7 @@
         <v>166</v>
       </c>
       <c r="D15" s="7">
-        <v>110778</v>
+        <v>103830</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5285,7 +5261,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5300,7 +5276,7 @@
         <v>318</v>
       </c>
       <c r="N15" s="7">
-        <v>189024</v>
+        <v>175155</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5323,46 +5299,46 @@
         <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>48544</v>
+        <v>45908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
       </c>
       <c r="I16" s="7">
-        <v>144067</v>
+        <v>128602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>336</v>
       </c>
       <c r="N16" s="7">
-        <v>192611</v>
+        <v>174510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,46 +5350,46 @@
         <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>66863</v>
+        <v>62341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
       </c>
       <c r="I17" s="7">
-        <v>154899</v>
+        <v>138953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
       </c>
       <c r="N17" s="7">
-        <v>221762</v>
+        <v>201294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,46 +5401,46 @@
         <v>841</v>
       </c>
       <c r="D18" s="7">
-        <v>575760</v>
+        <v>536618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>1152</v>
       </c>
       <c r="I18" s="7">
-        <v>721221</v>
+        <v>760242</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>1993</v>
       </c>
       <c r="N18" s="7">
-        <v>1296980</v>
+        <v>1296860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,7 +5452,7 @@
         <v>1018</v>
       </c>
       <c r="D19" s="7">
-        <v>691167</v>
+        <v>644867</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5491,7 +5467,7 @@
         <v>1700</v>
       </c>
       <c r="I19" s="7">
-        <v>1020187</v>
+        <v>1027797</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5506,7 +5482,7 @@
         <v>2718</v>
       </c>
       <c r="N19" s="7">
-        <v>1711354</v>
+        <v>1672664</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
